--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _VietGlobal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -228,9 +228,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>38/03/2021</t>
-  </si>
-  <si>
     <t>Lock: p01.livegps.vn,07102</t>
   </si>
   <si>
@@ -240,7 +237,25 @@
     <t>Tùng</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS</t>
+    <t>Imei mới:  868183033863437</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS (thay thế linh kiện bóc main)</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
   </si>
 </sst>
 </file>
@@ -613,6 +628,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,15 +665,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -958,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,43 +1006,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1072,58 +1087,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1148,23 +1163,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,9 +1187,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="42"/>
+        <v>71</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1187,36 +1204,38 @@
       <c r="G6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>68</v>
+      </c>
       <c r="I6" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="47">
-        <v>300000</v>
-      </c>
-      <c r="O6" s="45"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="P6" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1247,7 +1266,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1295,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1324,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1353,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1363,7 +1382,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1411,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1423,7 +1442,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1471,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1481,7 +1500,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1529,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1680,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -1693,7 +1712,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -2098,7 +2117,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -2162,7 +2181,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2741,11 +2760,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2759,6 +2773,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2802,43 +2821,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2883,58 +2902,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2959,23 +2978,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,7 +3020,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3032,7 +3051,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +3080,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3109,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3119,7 +3138,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3148,7 +3167,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3177,7 +3196,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3208,7 +3227,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3237,7 +3256,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3266,7 +3285,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3295,7 +3314,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4526,6 +4545,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4537,13 +4563,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _VietGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -628,6 +628,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,36 +665,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1006,43 +1006,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1087,58 +1087,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1163,23 +1163,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1266,7 +1266,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1442,7 +1442,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2760,6 +2760,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2773,11 +2778,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2821,43 +2821,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2902,58 +2902,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2978,49 +2978,79 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="B6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183034467771</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>74</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3051,7 +3081,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3080,7 +3110,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3109,7 +3139,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +3168,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3197,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3196,7 +3226,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3227,7 +3257,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3286,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3285,7 +3315,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3344,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3497,7 +3527,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -3646,7 +3676,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -3902,7 +3932,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -3966,7 +3996,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4545,13 +4575,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4563,6 +4586,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
